--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H2">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N2">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O2">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P2">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q2">
-        <v>805.6055945906772</v>
+        <v>392.2311681056854</v>
       </c>
       <c r="R2">
-        <v>7250.450351316095</v>
+        <v>3530.080512951169</v>
       </c>
       <c r="S2">
-        <v>0.12647530328364</v>
+        <v>0.06650958885566799</v>
       </c>
       <c r="T2">
-        <v>0.12647530328364</v>
+        <v>0.066509588855668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H3">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P3">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q3">
-        <v>3.380977491033333</v>
+        <v>1.46841754246</v>
       </c>
       <c r="R3">
-        <v>30.4287974193</v>
+        <v>13.21575788214</v>
       </c>
       <c r="S3">
-        <v>0.0005307934260199207</v>
+        <v>0.0002489956305337515</v>
       </c>
       <c r="T3">
-        <v>0.0005307934260199211</v>
+        <v>0.0002489956305337515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H4">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N4">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q4">
-        <v>5.04663701192</v>
+        <v>1.383874780522667</v>
       </c>
       <c r="R4">
-        <v>45.41973310728</v>
+        <v>12.454873024704</v>
       </c>
       <c r="S4">
-        <v>0.0007922920979332669</v>
+        <v>0.0002346599407813767</v>
       </c>
       <c r="T4">
-        <v>0.000792292097933267</v>
+        <v>0.0002346599407813767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H5">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N5">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q5">
-        <v>8.780369429051111</v>
+        <v>3.288638317796333</v>
       </c>
       <c r="R5">
-        <v>79.02332486146</v>
+        <v>29.597744860167</v>
       </c>
       <c r="S5">
-        <v>0.001378465956465803</v>
+        <v>0.0005576455932046041</v>
       </c>
       <c r="T5">
-        <v>0.001378465956465803</v>
+        <v>0.0005576455932046042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J6">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N6">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O6">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P6">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q6">
-        <v>2915.106478919771</v>
+        <v>3267.885006306646</v>
       </c>
       <c r="R6">
-        <v>26235.95831027794</v>
+        <v>29410.96505675981</v>
       </c>
       <c r="S6">
-        <v>0.4576544384759521</v>
+        <v>0.5541265097486947</v>
       </c>
       <c r="T6">
-        <v>0.4576544384759521</v>
+        <v>0.5541265097486948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J7">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P7">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q7">
         <v>12.23416204576</v>
@@ -883,10 +883,10 @@
         <v>110.10745841184</v>
       </c>
       <c r="S7">
-        <v>0.001920690925619596</v>
+        <v>0.002074514097354624</v>
       </c>
       <c r="T7">
-        <v>0.001920690925619597</v>
+        <v>0.002074514097354624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J8">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N8">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q8">
-        <v>18.261397821696</v>
+        <v>11.52979164740267</v>
       </c>
       <c r="R8">
-        <v>164.352580395264</v>
+        <v>103.768124826624</v>
       </c>
       <c r="S8">
-        <v>0.002866931217199037</v>
+        <v>0.001955075895074313</v>
       </c>
       <c r="T8">
-        <v>0.002866931217199037</v>
+        <v>0.001955075895074313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J9">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N9">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q9">
-        <v>31.77201347880533</v>
+        <v>27.39938261866133</v>
       </c>
       <c r="R9">
-        <v>285.948121309248</v>
+        <v>246.594443567952</v>
       </c>
       <c r="S9">
-        <v>0.004988017793875315</v>
+        <v>0.004646039940342737</v>
       </c>
       <c r="T9">
-        <v>0.004988017793875316</v>
+        <v>0.004646039940342738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H10">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N10">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O10">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P10">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q10">
-        <v>1099.775220634842</v>
+        <v>843.3455504670295</v>
       </c>
       <c r="R10">
-        <v>9897.976985713576</v>
+        <v>7590.109954203265</v>
       </c>
       <c r="S10">
-        <v>0.1726581909405639</v>
+        <v>0.1430038466746878</v>
       </c>
       <c r="T10">
-        <v>0.1726581909405639</v>
+        <v>0.1430038466746879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H11">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P11">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q11">
-        <v>4.6155529345</v>
+        <v>3.15727943458</v>
       </c>
       <c r="R11">
-        <v>41.5399764105</v>
+        <v>28.41551491122</v>
       </c>
       <c r="S11">
-        <v>0.0007246144529435438</v>
+        <v>0.0005353714191315637</v>
       </c>
       <c r="T11">
-        <v>0.0007246144529435442</v>
+        <v>0.0005353714191315639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H12">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N12">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q12">
-        <v>6.8894337012</v>
+        <v>2.975502034154667</v>
       </c>
       <c r="R12">
-        <v>62.0049033108</v>
+        <v>26.779518307392</v>
       </c>
       <c r="S12">
-        <v>0.001081600255338996</v>
+        <v>0.0005045479121065344</v>
       </c>
       <c r="T12">
-        <v>0.001081600255338996</v>
+        <v>0.0005045479121065344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H13">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N13">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q13">
-        <v>11.98655122423333</v>
+        <v>7.070979355882334</v>
       </c>
       <c r="R13">
-        <v>107.8789610181</v>
+        <v>63.638814202941</v>
       </c>
       <c r="S13">
-        <v>0.001881817494303857</v>
+        <v>0.001199007034647314</v>
       </c>
       <c r="T13">
-        <v>0.001881817494303857</v>
+        <v>0.001199007034647315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H14">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N14">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O14">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P14">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q14">
-        <v>1415.967340565492</v>
+        <v>1302.992756896768</v>
       </c>
       <c r="R14">
-        <v>12743.70606508943</v>
+        <v>11726.93481207091</v>
       </c>
       <c r="S14">
-        <v>0.2222984796037093</v>
+        <v>0.2209449926217152</v>
       </c>
       <c r="T14">
-        <v>0.2222984796037093</v>
+        <v>0.2209449926217153</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H15">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.03682</v>
       </c>
       <c r="O15">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P15">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q15">
-        <v>5.942552706480001</v>
+        <v>4.87808613264</v>
       </c>
       <c r="R15">
-        <v>53.48297435832001</v>
+        <v>43.90277519376001</v>
       </c>
       <c r="S15">
-        <v>0.0009329455516169168</v>
+        <v>0.0008271640029305443</v>
       </c>
       <c r="T15">
-        <v>0.000932945551616917</v>
+        <v>0.0008271640029305444</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H16">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N16">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O16">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P16">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q16">
-        <v>8.870188137408</v>
+        <v>4.597234901504001</v>
       </c>
       <c r="R16">
-        <v>79.831693236672</v>
+        <v>41.37511411353601</v>
       </c>
       <c r="S16">
-        <v>0.001392566961295287</v>
+        <v>0.0007795408117326676</v>
       </c>
       <c r="T16">
-        <v>0.001392566961295287</v>
+        <v>0.0007795408117326677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H17">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N17">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O17">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P17">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q17">
-        <v>15.432758204656</v>
+        <v>10.924863337192</v>
       </c>
       <c r="R17">
-        <v>138.894823841904</v>
+        <v>98.32377003472801</v>
       </c>
       <c r="S17">
-        <v>0.002422851563523065</v>
+        <v>0.00185249982139415</v>
       </c>
       <c r="T17">
-        <v>0.002422851563523066</v>
+        <v>0.00185249982139415</v>
       </c>
     </row>
   </sheetData>
